--- a/docentes/Bautista Sarao Eutiquio - Estadisticos 2020.xlsx
+++ b/docentes/Bautista Sarao Eutiquio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,33 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>ALMANZA</t>
+  </si>
+  <si>
+    <t>JEAN PIERRE</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>MARIO</t>
   </si>
 </sst>
 </file>
@@ -779,7 +806,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,6 +839,75 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920045</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920054</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920080</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Bautista Sarao Eutiquio - Estadisticos 2020.xlsx
+++ b/docentes/Bautista Sarao Eutiquio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Mat</t>
   </si>
@@ -71,33 +71,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>ALMANZA</t>
-  </si>
-  <si>
-    <t>JEAN PIERRE</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>MARIO</t>
   </si>
 </sst>
 </file>
@@ -501,19 +474,19 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>51.72</v>
+        <v>68.97</v>
       </c>
       <c r="H2">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -527,19 +500,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>58.62</v>
+        <v>72.41</v>
       </c>
       <c r="H3">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -553,19 +526,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>68.18000000000001</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -621,16 +594,19 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>68.97</v>
+      </c>
+      <c r="H2">
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -644,16 +620,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.52</v>
+      </c>
+      <c r="H3">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -667,16 +646,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>77.27</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -732,19 +714,19 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>51.72</v>
+        <v>68.97</v>
       </c>
       <c r="H2">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -758,19 +740,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>58.62</v>
+        <v>72.41</v>
       </c>
       <c r="H3">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -784,19 +766,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>68.18000000000001</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -839,75 +821,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920045</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920054</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920080</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
